--- a/similarities/split_global/harmonic_similarity_timestamps_144.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_144.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D/7', 'A/3', 'B:min']]</t>
+          <t>['A', 'D', 'A', 'E/4']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:24.220000', '0:00:30.480000')]</t>
+          <t>('0:00:55.680000', '0:01:06.100000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:11.062412', '0:00:12.567886')]</t>
+          <t>('0:00:34.232000', '0:00:40.821000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=24.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-30#t=11.062412']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=34.232</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_70</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>jaah_72</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Eb:min7', 'G:dim7']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Db:maj6', 'D:dim7']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:47.200000', '0:00:49.940000')]</t>
+          <t>('0:00:13.580000', '0:00:27.980000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.050000')]</t>
+          <t>('0:00:42.150000', '0:01:07.840000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-70#t=47.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=13.58</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_261</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'D:7'], ['D:7', 'G:min', 'C:min']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/C#', 'C:7'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:57.940158', '0:01:02.259070'), ('0:01:00.854263', '0:01:06.566371')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:27.380000', '0:00:35.820000'), ('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:01:08.980000', '0:01:23.900000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=57.940158', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=60.854263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=27.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>['C:maj', 'G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj/A', 'D:min/A', 'A:maj']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.648911', '0:00:30.830861')]</t>
+          <t>('0:00:57.500000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:13.500000')]</t>
+          <t>('0:00:58.400000', '0:01:08.120000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=20.648911']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=57.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=3.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=58.4</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_70</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C', 'A:min7', 'D:7']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F', 'F:maj6', 'G:7']]</t>
+          <t>['D', 'A', 'A:7/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:19.551000', '0:00:23.760000')]</t>
+          <t>('0:01:06.260000', '0:01:13.300000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.170000', '0:00:11.280000')]</t>
+          <t>('0:00:34.975070', '0:00:47.386136')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=19.551']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=7.17']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=34.97507</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_130</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:35.080000')]</t>
+          <t>('0:01:23.200000', '0:01:31.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.230000', '0:01:07.670000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=83.2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['B', 'E/5', 'B']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:03.660000', '0:00:09.640000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:55.629773', '0:01:07.541609')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=3.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['C:maj', 'G/3', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+          <t>('0:02:37.019000', '0:02:40.636000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
+          <t>('0:00:02.560000', '0:00:21.440000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=157.019</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=16.52']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:01.206300', '0:01:58.925813')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
+          <t>('0:00:07.900000', '0:00:21.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:12.997936')]</t>
+          <t>('0:00:24.838594', '0:00:43.252018')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
+          <t>('0:00:00.260000', '0:00:07.340000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:23.820000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=0.26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['C/3', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:7', 'G:(3,5,b7,b9)/F', 'C:min/D#']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:05', '0:00:21.500000')]</t>
+          <t>('0:01:16.585782', '0:01:18.064810')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:19.760000', '0:02:22.680000')]</t>
+          <t>('0:00:17.340000', '0:00:24.400000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-12#t=5.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=76.585782</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=139.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-216#t=28.009637']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:55.180000', '0:01:02.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:16.920000', '0:00:23.900000')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'D']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'G', 'C']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:25.006780', '0:00:29.410731')]</t>
+          <t>('0:02:29', '0:03:02.720000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:30.971000', '0:01:36.810000')]</t>
+          <t>('0:00:01.440000', '0:00:40.100000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=25.00678']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=149.0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
